--- a/기획/체스/카드 파워 포인트.xlsx
+++ b/기획/체스/카드 파워 포인트.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhgki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\체스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBB47A6-2FBB-4937-A15C-251909D97B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144CF020-C234-43E4-A326-0D152BA872EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
+    <workbookView xWindow="4380" yWindow="555" windowWidth="22020" windowHeight="15225" firstSheet="1" activeTab="4" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="카드 ID 규칙" sheetId="5" r:id="rId2"/>
+    <sheet name="카드 데이터 테이블" sheetId="2" r:id="rId3"/>
+    <sheet name="카드 필터 테이블" sheetId="3" r:id="rId4"/>
+    <sheet name="유저 DB" sheetId="4" r:id="rId5"/>
+    <sheet name="유저 DB_보유 카드 목록(Held Card List)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="291">
   <si>
     <t>리스크 포인트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,50 +434,6 @@
   </si>
   <si>
     <t>베이직-0, 널-1, 레어-2, 에픽-3, 유니크-4, 레전드-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슈퍼 레어 보유량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울트라 레어 보유량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골드 레어 보유량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실버 레어 보유량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노멀 레어 보유량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal Rarity Reserves</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Siver Rarity Reserves</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold Rarity Reserves</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Super Rarity Reserves</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ultra Rarity Reserves</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자(4자)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -546,9 +504,650 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>레어도별
-보유 매수
-(Rarity Reserves)</t>
+    <t>카드 데이터 테이블(Card Data Table)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">한글 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기물 능력치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 키워드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기물 체력_최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piece Health Point_Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기물 체력_최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piece Health Point_Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기물 공격력_최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piece Attack Point_Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기물 공격력_최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piece Attack Point_Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기물 사거리_최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piece Range Point_Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기물 사거리_최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piece Range Point_Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기물 이동 속도_최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기물 이동 속도_최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piece Speed Point_Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piece Speed Point_Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 사거리_최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 사거리_최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기물 카드 필터 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 카드 필터 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 카드 필터 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piece Card Filter Activate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill Card Filter Activate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event Card Filter Activate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기물 능력치 필터 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piecs Status Filter Activate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기물 체력 필터 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piecs Health Filter Activate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기물 공격력 필터 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piece Attack Filter Activate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기물 사거리 필터 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기물 이동 속도 필터 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piece Range Filter Activate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Piece Speed Filter Activate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 사거리 필터 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill Range Filter Activate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill Range Point_Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill Range Point_Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 키워드_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Origin Keyword_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 키워드_2</t>
+  </si>
+  <si>
+    <t>Origin Keyword_2</t>
+  </si>
+  <si>
+    <t>고유 키워드_3</t>
+  </si>
+  <si>
+    <t>Origin Keyword_3</t>
+  </si>
+  <si>
+    <t>고유 키워드_4</t>
+  </si>
+  <si>
+    <t>고유 키워드_5</t>
+  </si>
+  <si>
+    <t>Origin Keyword_5</t>
+  </si>
+  <si>
+    <t>고유 키워드_6</t>
+  </si>
+  <si>
+    <t>Origin Keyword_6</t>
+  </si>
+  <si>
+    <t>필요 데이터 참조 영역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/카드 종류(Card Type)" 인덱스 = 0 인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/카드 종류(Card Type)" 인덱스 = 1 인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/카드 종류(Card Type)" 인덱스 = 2 인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/기물 체력(Piece Health Point)"인덱스 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/기물 공격력(Piece Attack Point)"인덱스 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/기물 체력(Piece Health Point)"인덱스 ≥ "기물 체력_최소(Piece Health Point_Min)" 인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/기물 체력(Piece Health Point)"인덱스 ≤ "기물 체력_최대(Piece Health Ponit_Max)" 인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/기물 공격력(Piece Attack Point)"인덱스 ≥ "기물 공격력_최소(Piece Attack Point_Min)" 인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/기물 공격력(Piece Attack Point)"인덱스 ≤ "기물 공격력_최대(Piece Attack Point_Max)" 인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/기물 사거리(Piece Range Point)"인덱스 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/기물 사거리(Piece Range Point)"인덱스 ≥ "기물 사거리_최소(Piece Range Point_Min)" 인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/기물 사거리(Piece Range Point)"인덱스 ≤ "기물 사거리_최대(Piece Range Point_Max)" 인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/기물 이동 속도(Piece Speed Point)"인덱스 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/기물 이동 속도(Piece Speed Point)"인덱스 ≥ "기물 이동 속도_최소(Piece Speed Point_Min)" 인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/기물 이동 속도(Piece Speed Point)"인덱스 ≤ "기물 이동 속도_최대(Piece Speed Point_Max)" 인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/스킬 사거리(Skill Range Point)"인덱스 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/스킬 사거리(Skill Range Point)"인덱스 ≥ "기물 사거리_최소(Skill Range Point_Min)" 인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/스킬 사거리(Skill Range Point)"인덱스 ≤ "기물 사거리_최대(Skill Range Point_Max)" 인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Origin Keyword_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 보유량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Reserves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀 레어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실버 레어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 레어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼 레어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울트라 레어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Siver Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Super Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultra Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000003</t>
+  </si>
+  <si>
+    <t>00000004</t>
+  </si>
+  <si>
+    <t>00000005</t>
+  </si>
+  <si>
+    <t>00000006</t>
+  </si>
+  <si>
+    <t>00000007</t>
+  </si>
+  <si>
+    <t>00000008</t>
+  </si>
+  <si>
+    <t>00000009</t>
+  </si>
+  <si>
+    <t>00000010</t>
+  </si>
+  <si>
+    <t>00000011</t>
+  </si>
+  <si>
+    <t>00000012</t>
+  </si>
+  <si>
+    <t>00000013</t>
+  </si>
+  <si>
+    <t>00000014</t>
+  </si>
+  <si>
+    <t>00000015</t>
+  </si>
+  <si>
+    <t>00000016</t>
+  </si>
+  <si>
+    <t>00000017</t>
+  </si>
+  <si>
+    <t>00000018</t>
+  </si>
+  <si>
+    <t>00000019</t>
+  </si>
+  <si>
+    <t>00000020</t>
+  </si>
+  <si>
+    <t>00000021</t>
+  </si>
+  <si>
+    <t>00000022</t>
+  </si>
+  <si>
+    <t>00000023</t>
+  </si>
+  <si>
+    <t>00000024</t>
+  </si>
+  <si>
+    <t>00000025</t>
+  </si>
+  <si>
+    <t>00000026</t>
+  </si>
+  <si>
+    <t>00000027</t>
+  </si>
+  <si>
+    <t>00000028</t>
+  </si>
+  <si>
+    <t>00000029</t>
+  </si>
+  <si>
+    <t>00000030</t>
+  </si>
+  <si>
+    <t>00000031</t>
+  </si>
+  <si>
+    <t>00000032</t>
+  </si>
+  <si>
+    <t>00000033</t>
+  </si>
+  <si>
+    <t>00000034</t>
+  </si>
+  <si>
+    <t>00000035</t>
+  </si>
+  <si>
+    <t>00000036</t>
+  </si>
+  <si>
+    <t>00000037</t>
+  </si>
+  <si>
+    <t>00000038</t>
+  </si>
+  <si>
+    <t>00000039</t>
+  </si>
+  <si>
+    <t>00000040</t>
+  </si>
+  <si>
+    <t>00000041</t>
+  </si>
+  <si>
+    <t>00000042</t>
+  </si>
+  <si>
+    <t>00000043</t>
+  </si>
+  <si>
+    <t>00000044</t>
+  </si>
+  <si>
+    <t>00000045</t>
+  </si>
+  <si>
+    <t>00000046</t>
+  </si>
+  <si>
+    <t>00000047</t>
+  </si>
+  <si>
+    <t>00000048</t>
+  </si>
+  <si>
+    <t>00000049</t>
+  </si>
+  <si>
+    <t>00000050</t>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자(12자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 일련번호(Card Serial Number)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 레어도 분류(Card Rarity Classification)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자(11자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 ID 규칙 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ultra Rare = ULR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Rare = NOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Siver Rare = SIR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold Rare = GOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Super Rare = SUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000(숫자 8자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000(영어 3자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 생성 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">유저 ID </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소유 골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소유 파편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fragment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 랭크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 게임 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Match Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승리수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 총 보유량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀 레어 카드 보유량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실버 레어 카드 보유량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 레어 카드 보유량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼 레어 카드 보유량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울트라 레어 카드 보유량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자(64자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Odd Of Winning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,9 +1155,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -593,7 +1189,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -690,13 +1286,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,18 +1389,24 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -754,12 +1416,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -768,6 +1424,93 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1194,13 +1937,13 @@
       <c r="J20"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E27" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="19" t="s">
+      <c r="E27" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="13" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -1212,16 +1955,16 @@
       <c r="J27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="K27" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="L27" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="13" t="s">
+      <c r="M27" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="15"/>
+      <c r="N27" s="16"/>
       <c r="O27" s="5">
         <v>1</v>
       </c>
@@ -1230,9 +1973,9 @@
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
       <c r="H28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1242,9 +1985,9 @@
       <c r="J28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="16" t="s">
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="18" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -1258,9 +2001,9 @@
       </c>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
       <c r="H29" s="1" t="s">
         <v>7</v>
       </c>
@@ -1270,9 +2013,9 @@
       <c r="J29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
       <c r="N29" s="1" t="s">
         <v>43</v>
       </c>
@@ -1284,21 +2027,21 @@
       </c>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19" t="s">
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="19"/>
+      <c r="H30" s="13"/>
       <c r="I30" s="5">
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
       <c r="N30" s="1" t="s">
         <v>45</v>
       </c>
@@ -1310,11 +2053,11 @@
       </c>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E31" s="19"/>
-      <c r="F31" s="19" t="s">
+      <c r="E31" s="13"/>
+      <c r="F31" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -1326,9 +2069,9 @@
       <c r="J31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
       <c r="N31" s="1" t="s">
         <v>46</v>
       </c>
@@ -1340,9 +2083,9 @@
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="1" t="s">
         <v>14</v>
       </c>
@@ -1352,14 +2095,14 @@
       <c r="J32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="17"/>
-      <c r="L32" s="16" t="s">
+      <c r="K32" s="19"/>
+      <c r="L32" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M32" s="13" t="s">
+      <c r="M32" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="15"/>
+      <c r="N32" s="16"/>
       <c r="O32" s="5" t="s">
         <v>47</v>
       </c>
@@ -1368,9 +2111,9 @@
       </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
       <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,12 +2123,12 @@
       <c r="J33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="13" t="s">
+      <c r="K33" s="19"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="15"/>
+      <c r="N33" s="16"/>
       <c r="O33" s="5" t="s">
         <v>47</v>
       </c>
@@ -1394,9 +2137,9 @@
       </c>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
@@ -1406,25 +2149,25 @@
       <c r="J34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="16" t="s">
+      <c r="K34" s="19"/>
+      <c r="L34" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="M34" s="13" t="s">
+      <c r="M34" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N34" s="15"/>
+      <c r="N34" s="16"/>
       <c r="O34" s="5">
         <v>1</v>
       </c>
-      <c r="P34" s="20" t="s">
+      <c r="P34" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
       <c r="H35" s="1" t="s">
         <v>11</v>
       </c>
@@ -1434,21 +2177,21 @@
       <c r="J35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="13" t="s">
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="N35" s="15"/>
+      <c r="N35" s="16"/>
       <c r="O35" s="5">
         <v>2</v>
       </c>
-      <c r="P35" s="20"/>
+      <c r="P35" s="14"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19" t="s">
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -1460,21 +2203,21 @@
       <c r="J36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="17"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="13" t="s">
+      <c r="K36" s="19"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N36" s="15"/>
+      <c r="N36" s="16"/>
       <c r="O36" s="5">
         <v>3</v>
       </c>
-      <c r="P36" s="20"/>
+      <c r="P36" s="14"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
       <c r="H37" s="1" t="s">
         <v>10</v>
       </c>
@@ -1484,8 +2227,8 @@
       <c r="J37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="17"/>
-      <c r="L37" s="16" t="s">
+      <c r="K37" s="19"/>
+      <c r="L37" s="18" t="s">
         <v>37</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -1502,9 +2245,9 @@
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19" t="s">
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -1516,8 +2259,8 @@
       <c r="J38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="17"/>
-      <c r="L38" s="18"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="20"/>
       <c r="M38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1532,9 +2275,9 @@
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
       <c r="H39" s="1" t="s">
         <v>10</v>
       </c>
@@ -1544,12 +2287,12 @@
       <c r="J39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="18"/>
-      <c r="L39" s="13" t="s">
+      <c r="K39" s="20"/>
+      <c r="L39" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="14"/>
-      <c r="N39" s="15"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="16"/>
       <c r="O39" s="5">
         <v>1</v>
       </c>
@@ -1558,14 +2301,14 @@
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E40" s="19"/>
-      <c r="F40" s="19" t="s">
+      <c r="E40" s="13"/>
+      <c r="F40" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="19"/>
+      <c r="H40" s="13"/>
       <c r="I40" s="5">
         <v>1</v>
       </c>
@@ -1574,12 +2317,12 @@
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19" t="s">
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="19"/>
+      <c r="H41" s="13"/>
       <c r="I41" s="5">
         <v>1</v>
       </c>
@@ -1588,8 +2331,8 @@
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
+      <c r="E42" s="13"/>
+      <c r="F42" s="13" t="s">
         <v>37</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -1606,8 +2349,8 @@
       </c>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
       <c r="G43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1622,12 +2365,12 @@
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E44" s="19"/>
-      <c r="F44" s="19" t="s">
+      <c r="E44" s="13"/>
+      <c r="F44" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
       <c r="I44" s="5">
         <v>1</v>
       </c>
@@ -1637,6 +2380,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="K27:K39"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G31:G35"/>
     <mergeCell ref="E27:E44"/>
     <mergeCell ref="F31:F39"/>
     <mergeCell ref="F40:F41"/>
@@ -1653,17 +2407,6 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="G36:G37"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="K27:K39"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G31:G35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1671,19 +2414,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C330B8B-7716-47B7-B95A-E7C6A0C56460}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="41.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="10"/>
+    <col min="5" max="5" width="33.75" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="35"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="46" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="46" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="46" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="46" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="47"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72153495-9548-4082-9176-2E3A9CF38348}">
   <dimension ref="A2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="6" bestFit="1" customWidth="1"/>
@@ -1701,9 +2516,23 @@
         <v>56</v>
       </c>
     </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+    </row>
     <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="22"/>
       <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
@@ -1728,16 +2557,16 @@
         <v>93</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>83</v>
+        <v>58</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>258</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>56</v>
@@ -1745,18 +2574,20 @@
       <c r="G13" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H13"/>
+      <c r="H13" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="2" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>63</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -1764,6 +2595,9 @@
       </c>
       <c r="G14" s="10" t="s">
         <v>78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1801,7 +2635,7 @@
         <v>96</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H16" t="s">
         <v>98</v>
@@ -1811,7 +2645,7 @@
       <c r="A17" s="21"/>
       <c r="B17" s="22"/>
       <c r="C17" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
         <v>90</v>
@@ -1852,10 +2686,10 @@
       <c r="A19" s="21"/>
       <c r="B19" s="22"/>
       <c r="C19" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>62</v>
@@ -1889,13 +2723,13 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="21" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>85</v>
@@ -1914,10 +2748,10 @@
       <c r="A22" s="21"/>
       <c r="B22" s="22"/>
       <c r="C22" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>85</v>
@@ -1936,10 +2770,10 @@
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
       <c r="C23" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>65</v>
@@ -1958,10 +2792,10 @@
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
       <c r="C24" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>65</v>
@@ -1979,7 +2813,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="21"/>
       <c r="B25" s="22" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>69</v>
@@ -2057,7 +2891,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="21"/>
       <c r="B29" s="9" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>73</v>
@@ -2075,116 +2909,2288 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0</v>
-      </c>
-      <c r="G30" s="12">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="12">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="6">
-        <v>0</v>
-      </c>
-      <c r="G32" s="12">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" t="s">
-        <v>107</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="6">
-        <v>0</v>
-      </c>
-      <c r="G33" s="12">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F34" s="6">
-        <v>0</v>
-      </c>
-      <c r="G34" s="12">
-        <v>9999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H35" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B25:B28"/>
-    <mergeCell ref="A30:B34"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="B13:B20"/>
     <mergeCell ref="A13:A29"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5928B3-5658-40D5-928F-81A696B143DF}">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="116.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57.875" style="29" customWidth="1"/>
+    <col min="10" max="10" width="74.625" customWidth="1"/>
+    <col min="11" max="11" width="41.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25"/>
+      <c r="B1" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="32"/>
+      <c r="B3" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="40"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="32"/>
+      <c r="B6" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
+      <c r="B7" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>24</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0</v>
+      </c>
+      <c r="G8" s="37">
+        <v>24</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
+      <c r="B10" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>12</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="26">
+        <v>0</v>
+      </c>
+      <c r="F11" s="37">
+        <v>0</v>
+      </c>
+      <c r="G11" s="37">
+        <v>12</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="I11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
+      <c r="B12" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
+      <c r="B13" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>12</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="26">
+        <v>0</v>
+      </c>
+      <c r="F14" s="37">
+        <v>0</v>
+      </c>
+      <c r="G14" s="37">
+        <v>12</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
+      <c r="B15" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="32"/>
+      <c r="B16" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>12</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
+      <c r="B17" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="37">
+        <v>0</v>
+      </c>
+      <c r="G17" s="37">
+        <v>12</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="32"/>
+      <c r="B19" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>12</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32"/>
+      <c r="B20" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0</v>
+      </c>
+      <c r="F20" s="37">
+        <v>0</v>
+      </c>
+      <c r="G20" s="37">
+        <v>12</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="43">
+        <v>0</v>
+      </c>
+      <c r="F21" s="35">
+        <v>0</v>
+      </c>
+      <c r="G21" s="35">
+        <v>99</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="42"/>
+      <c r="B22" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="26">
+        <v>0</v>
+      </c>
+      <c r="F22" s="41">
+        <v>0</v>
+      </c>
+      <c r="G22" s="41">
+        <v>99</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="34"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="32"/>
+      <c r="B24" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="32"/>
+      <c r="B25" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="32"/>
+      <c r="B26" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="39"/>
+      <c r="I26" s="34"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="32"/>
+      <c r="B27" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="32"/>
+      <c r="B28" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A23:A28"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB4BDA6-A75A-4CD0-B541-2D711F682760}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="50" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="52" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.125" style="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.875" style="48" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="52"/>
+    </row>
+    <row r="3" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="52"/>
+    </row>
+    <row r="4" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="52"/>
+    </row>
+    <row r="5" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" s="52"/>
+    </row>
+    <row r="6" spans="1:5" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="52"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E12">
+        <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!G6:G56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E13">
+        <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!F6:F56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E14">
+        <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!E6:E56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15">
+        <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!D6:D56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="E16">
+        <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!C6:F56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="E17">
+        <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!B6:B56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="49"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K23" s="49"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="49"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="49"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="49"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E13:E15 E17" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979C70BF-7230-43C9-9DAB-8CEF2C7AA0DD}">
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="44">
+        <v>0</v>
+      </c>
+      <c r="C3" s="44">
+        <v>0</v>
+      </c>
+      <c r="D3" s="44">
+        <v>0</v>
+      </c>
+      <c r="E3" s="44">
+        <v>0</v>
+      </c>
+      <c r="F3" s="44">
+        <v>0</v>
+      </c>
+      <c r="G3" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="44">
+        <v>0</v>
+      </c>
+      <c r="C4" s="44">
+        <v>0</v>
+      </c>
+      <c r="D4" s="44">
+        <v>0</v>
+      </c>
+      <c r="E4" s="44">
+        <v>0</v>
+      </c>
+      <c r="F4" s="44">
+        <v>0</v>
+      </c>
+      <c r="G4" s="48">
+        <f>B4+C4+D4+E4+F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="44">
+        <v>99</v>
+      </c>
+      <c r="C5" s="44">
+        <v>99</v>
+      </c>
+      <c r="D5" s="44">
+        <v>99</v>
+      </c>
+      <c r="E5" s="44">
+        <v>99</v>
+      </c>
+      <c r="F5" s="44">
+        <v>99</v>
+      </c>
+      <c r="G5" s="48">
+        <f>B5+C5+D5+E5+F5</f>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="44">
+        <v>0</v>
+      </c>
+      <c r="C6" s="44">
+        <v>0</v>
+      </c>
+      <c r="D6" s="44">
+        <v>0</v>
+      </c>
+      <c r="E6" s="44">
+        <v>0</v>
+      </c>
+      <c r="F6" s="44">
+        <v>0</v>
+      </c>
+      <c r="G6" s="48">
+        <f>B6+C6+D6+E6+F6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="44">
+        <v>0</v>
+      </c>
+      <c r="C7" s="44">
+        <v>0</v>
+      </c>
+      <c r="D7" s="44">
+        <v>0</v>
+      </c>
+      <c r="E7" s="44">
+        <v>0</v>
+      </c>
+      <c r="F7" s="44">
+        <v>0</v>
+      </c>
+      <c r="G7" s="48">
+        <f>B7+C7+D7+E7+F7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="44">
+        <v>0</v>
+      </c>
+      <c r="C8" s="44">
+        <v>0</v>
+      </c>
+      <c r="D8" s="44">
+        <v>0</v>
+      </c>
+      <c r="E8" s="44">
+        <v>0</v>
+      </c>
+      <c r="F8" s="44">
+        <v>0</v>
+      </c>
+      <c r="G8" s="48">
+        <f>B8+C8+D8+E8+F8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="44">
+        <v>0</v>
+      </c>
+      <c r="C9" s="44">
+        <v>0</v>
+      </c>
+      <c r="D9" s="44">
+        <v>0</v>
+      </c>
+      <c r="E9" s="44">
+        <v>0</v>
+      </c>
+      <c r="F9" s="44">
+        <v>0</v>
+      </c>
+      <c r="G9" s="48">
+        <f>B9+C9+D9+E9+F9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="44">
+        <v>0</v>
+      </c>
+      <c r="C10" s="44">
+        <v>0</v>
+      </c>
+      <c r="D10" s="44">
+        <v>0</v>
+      </c>
+      <c r="E10" s="44">
+        <v>0</v>
+      </c>
+      <c r="F10" s="44">
+        <v>0</v>
+      </c>
+      <c r="G10" s="48">
+        <f>B10+C10+D10+E10+F10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" s="44">
+        <v>0</v>
+      </c>
+      <c r="C11" s="44">
+        <v>0</v>
+      </c>
+      <c r="D11" s="44">
+        <v>0</v>
+      </c>
+      <c r="E11" s="44">
+        <v>0</v>
+      </c>
+      <c r="F11" s="44">
+        <v>0</v>
+      </c>
+      <c r="G11" s="48">
+        <f>B11+C11+D11+E11+F11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" s="44">
+        <v>0</v>
+      </c>
+      <c r="C12" s="44">
+        <v>0</v>
+      </c>
+      <c r="D12" s="44">
+        <v>0</v>
+      </c>
+      <c r="E12" s="44">
+        <v>0</v>
+      </c>
+      <c r="F12" s="44">
+        <v>0</v>
+      </c>
+      <c r="G12" s="48">
+        <f>B12+C12+D12+E12+F12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="45" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="44">
+        <v>0</v>
+      </c>
+      <c r="C13" s="44">
+        <v>0</v>
+      </c>
+      <c r="D13" s="44">
+        <v>0</v>
+      </c>
+      <c r="E13" s="44">
+        <v>0</v>
+      </c>
+      <c r="F13" s="44">
+        <v>0</v>
+      </c>
+      <c r="G13" s="48">
+        <f>B13+C13+D13+E13+F13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="44">
+        <v>0</v>
+      </c>
+      <c r="C14" s="44">
+        <v>0</v>
+      </c>
+      <c r="D14" s="44">
+        <v>0</v>
+      </c>
+      <c r="E14" s="44">
+        <v>0</v>
+      </c>
+      <c r="F14" s="44">
+        <v>0</v>
+      </c>
+      <c r="G14" s="48">
+        <f>B14+C14+D14+E14+F14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="44">
+        <v>0</v>
+      </c>
+      <c r="C15" s="44">
+        <v>0</v>
+      </c>
+      <c r="D15" s="44">
+        <v>0</v>
+      </c>
+      <c r="E15" s="44">
+        <v>0</v>
+      </c>
+      <c r="F15" s="44">
+        <v>0</v>
+      </c>
+      <c r="G15" s="48">
+        <f>B15+C15+D15+E15+F15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="44">
+        <v>0</v>
+      </c>
+      <c r="C16" s="44">
+        <v>0</v>
+      </c>
+      <c r="D16" s="44">
+        <v>0</v>
+      </c>
+      <c r="E16" s="44">
+        <v>0</v>
+      </c>
+      <c r="F16" s="44">
+        <v>0</v>
+      </c>
+      <c r="G16" s="48">
+        <f>B16+C16+D16+E16+F16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="44">
+        <v>0</v>
+      </c>
+      <c r="C17" s="44">
+        <v>0</v>
+      </c>
+      <c r="D17" s="44">
+        <v>0</v>
+      </c>
+      <c r="E17" s="44">
+        <v>0</v>
+      </c>
+      <c r="F17" s="44">
+        <v>0</v>
+      </c>
+      <c r="G17" s="48">
+        <f>B17+C17+D17+E17+F17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="44">
+        <v>0</v>
+      </c>
+      <c r="C18" s="44">
+        <v>0</v>
+      </c>
+      <c r="D18" s="44">
+        <v>0</v>
+      </c>
+      <c r="E18" s="44">
+        <v>0</v>
+      </c>
+      <c r="F18" s="44">
+        <v>0</v>
+      </c>
+      <c r="G18" s="48">
+        <f>B18+C18+D18+E18+F18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="44">
+        <v>0</v>
+      </c>
+      <c r="C19" s="44">
+        <v>0</v>
+      </c>
+      <c r="D19" s="44">
+        <v>0</v>
+      </c>
+      <c r="E19" s="44">
+        <v>0</v>
+      </c>
+      <c r="F19" s="44">
+        <v>0</v>
+      </c>
+      <c r="G19" s="48">
+        <f>B19+C19+D19+E19+F19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" s="44">
+        <v>0</v>
+      </c>
+      <c r="C20" s="44">
+        <v>0</v>
+      </c>
+      <c r="D20" s="44">
+        <v>0</v>
+      </c>
+      <c r="E20" s="44">
+        <v>0</v>
+      </c>
+      <c r="F20" s="44">
+        <v>0</v>
+      </c>
+      <c r="G20" s="48">
+        <f>B20+C20+D20+E20+F20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="44">
+        <v>0</v>
+      </c>
+      <c r="C21" s="44">
+        <v>0</v>
+      </c>
+      <c r="D21" s="44">
+        <v>0</v>
+      </c>
+      <c r="E21" s="44">
+        <v>0</v>
+      </c>
+      <c r="F21" s="44">
+        <v>0</v>
+      </c>
+      <c r="G21" s="48">
+        <f>B21+C21+D21+E21+F21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="45" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="44">
+        <v>0</v>
+      </c>
+      <c r="C22" s="44">
+        <v>0</v>
+      </c>
+      <c r="D22" s="44">
+        <v>0</v>
+      </c>
+      <c r="E22" s="44">
+        <v>0</v>
+      </c>
+      <c r="F22" s="44">
+        <v>0</v>
+      </c>
+      <c r="G22" s="48">
+        <f>B22+C22+D22+E22+F22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="44">
+        <v>0</v>
+      </c>
+      <c r="C23" s="44">
+        <v>0</v>
+      </c>
+      <c r="D23" s="44">
+        <v>0</v>
+      </c>
+      <c r="E23" s="44">
+        <v>0</v>
+      </c>
+      <c r="F23" s="44">
+        <v>0</v>
+      </c>
+      <c r="G23" s="48">
+        <f>B23+C23+D23+E23+F23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="44">
+        <v>0</v>
+      </c>
+      <c r="C24" s="44">
+        <v>0</v>
+      </c>
+      <c r="D24" s="44">
+        <v>0</v>
+      </c>
+      <c r="E24" s="44">
+        <v>0</v>
+      </c>
+      <c r="F24" s="44">
+        <v>0</v>
+      </c>
+      <c r="G24" s="48">
+        <f>B24+C24+D24+E24+F24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="44">
+        <v>0</v>
+      </c>
+      <c r="C25" s="44">
+        <v>0</v>
+      </c>
+      <c r="D25" s="44">
+        <v>0</v>
+      </c>
+      <c r="E25" s="44">
+        <v>0</v>
+      </c>
+      <c r="F25" s="44">
+        <v>0</v>
+      </c>
+      <c r="G25" s="48">
+        <f>B25+C25+D25+E25+F25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" s="44">
+        <v>0</v>
+      </c>
+      <c r="C26" s="44">
+        <v>0</v>
+      </c>
+      <c r="D26" s="44">
+        <v>0</v>
+      </c>
+      <c r="E26" s="44">
+        <v>0</v>
+      </c>
+      <c r="F26" s="44">
+        <v>0</v>
+      </c>
+      <c r="G26" s="48">
+        <f>B26+C26+D26+E26+F26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" s="44">
+        <v>0</v>
+      </c>
+      <c r="C27" s="44">
+        <v>0</v>
+      </c>
+      <c r="D27" s="44">
+        <v>0</v>
+      </c>
+      <c r="E27" s="44">
+        <v>0</v>
+      </c>
+      <c r="F27" s="44">
+        <v>0</v>
+      </c>
+      <c r="G27" s="48">
+        <f>B27+C27+D27+E27+F27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" s="44">
+        <v>0</v>
+      </c>
+      <c r="C28" s="44">
+        <v>0</v>
+      </c>
+      <c r="D28" s="44">
+        <v>0</v>
+      </c>
+      <c r="E28" s="44">
+        <v>0</v>
+      </c>
+      <c r="F28" s="44">
+        <v>0</v>
+      </c>
+      <c r="G28" s="48">
+        <f>B28+C28+D28+E28+F28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="44">
+        <v>0</v>
+      </c>
+      <c r="C29" s="44">
+        <v>0</v>
+      </c>
+      <c r="D29" s="44">
+        <v>0</v>
+      </c>
+      <c r="E29" s="44">
+        <v>0</v>
+      </c>
+      <c r="F29" s="44">
+        <v>0</v>
+      </c>
+      <c r="G29" s="48">
+        <f>B29+C29+D29+E29+F29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="44">
+        <v>0</v>
+      </c>
+      <c r="C30" s="44">
+        <v>0</v>
+      </c>
+      <c r="D30" s="44">
+        <v>0</v>
+      </c>
+      <c r="E30" s="44">
+        <v>0</v>
+      </c>
+      <c r="F30" s="44">
+        <v>0</v>
+      </c>
+      <c r="G30" s="48">
+        <f>B30+C30+D30+E30+F30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="44">
+        <v>0</v>
+      </c>
+      <c r="C31" s="44">
+        <v>0</v>
+      </c>
+      <c r="D31" s="44">
+        <v>0</v>
+      </c>
+      <c r="E31" s="44">
+        <v>0</v>
+      </c>
+      <c r="F31" s="44">
+        <v>0</v>
+      </c>
+      <c r="G31" s="48">
+        <f>B31+C31+D31+E31+F31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="B32" s="44">
+        <v>0</v>
+      </c>
+      <c r="C32" s="44">
+        <v>0</v>
+      </c>
+      <c r="D32" s="44">
+        <v>0</v>
+      </c>
+      <c r="E32" s="44">
+        <v>0</v>
+      </c>
+      <c r="F32" s="44">
+        <v>0</v>
+      </c>
+      <c r="G32" s="48">
+        <f>B32+C32+D32+E32+F32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" s="44">
+        <v>0</v>
+      </c>
+      <c r="C33" s="44">
+        <v>0</v>
+      </c>
+      <c r="D33" s="44">
+        <v>0</v>
+      </c>
+      <c r="E33" s="44">
+        <v>0</v>
+      </c>
+      <c r="F33" s="44">
+        <v>0</v>
+      </c>
+      <c r="G33" s="48">
+        <f>B33+C33+D33+E33+F33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" s="44">
+        <v>0</v>
+      </c>
+      <c r="C34" s="44">
+        <v>0</v>
+      </c>
+      <c r="D34" s="44">
+        <v>0</v>
+      </c>
+      <c r="E34" s="44">
+        <v>0</v>
+      </c>
+      <c r="F34" s="44">
+        <v>0</v>
+      </c>
+      <c r="G34" s="48">
+        <f>B34+C34+D34+E34+F34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" s="44">
+        <v>0</v>
+      </c>
+      <c r="C35" s="44">
+        <v>0</v>
+      </c>
+      <c r="D35" s="44">
+        <v>0</v>
+      </c>
+      <c r="E35" s="44">
+        <v>0</v>
+      </c>
+      <c r="F35" s="44">
+        <v>0</v>
+      </c>
+      <c r="G35" s="48">
+        <f>B35+C35+D35+E35+F35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" s="44">
+        <v>0</v>
+      </c>
+      <c r="C36" s="44">
+        <v>0</v>
+      </c>
+      <c r="D36" s="44">
+        <v>0</v>
+      </c>
+      <c r="E36" s="44">
+        <v>0</v>
+      </c>
+      <c r="F36" s="44">
+        <v>0</v>
+      </c>
+      <c r="G36" s="48">
+        <f>B36+C36+D36+E36+F36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" s="44">
+        <v>0</v>
+      </c>
+      <c r="C37" s="44">
+        <v>0</v>
+      </c>
+      <c r="D37" s="44">
+        <v>0</v>
+      </c>
+      <c r="E37" s="44">
+        <v>0</v>
+      </c>
+      <c r="F37" s="44">
+        <v>0</v>
+      </c>
+      <c r="G37" s="48">
+        <f>B37+C37+D37+E37+F37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="B38" s="44">
+        <v>0</v>
+      </c>
+      <c r="C38" s="44">
+        <v>0</v>
+      </c>
+      <c r="D38" s="44">
+        <v>0</v>
+      </c>
+      <c r="E38" s="44">
+        <v>0</v>
+      </c>
+      <c r="F38" s="44">
+        <v>0</v>
+      </c>
+      <c r="G38" s="48">
+        <f>B38+C38+D38+E38+F38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" s="44">
+        <v>0</v>
+      </c>
+      <c r="C39" s="44">
+        <v>0</v>
+      </c>
+      <c r="D39" s="44">
+        <v>0</v>
+      </c>
+      <c r="E39" s="44">
+        <v>0</v>
+      </c>
+      <c r="F39" s="44">
+        <v>0</v>
+      </c>
+      <c r="G39" s="48">
+        <f>B39+C39+D39+E39+F39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" s="44">
+        <v>0</v>
+      </c>
+      <c r="C40" s="44">
+        <v>0</v>
+      </c>
+      <c r="D40" s="44">
+        <v>0</v>
+      </c>
+      <c r="E40" s="44">
+        <v>0</v>
+      </c>
+      <c r="F40" s="44">
+        <v>0</v>
+      </c>
+      <c r="G40" s="48">
+        <f>B40+C40+D40+E40+F40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" s="44">
+        <v>0</v>
+      </c>
+      <c r="C41" s="44">
+        <v>0</v>
+      </c>
+      <c r="D41" s="44">
+        <v>0</v>
+      </c>
+      <c r="E41" s="44">
+        <v>0</v>
+      </c>
+      <c r="F41" s="44">
+        <v>0</v>
+      </c>
+      <c r="G41" s="48">
+        <f>B41+C41+D41+E41+F41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="B42" s="44">
+        <v>0</v>
+      </c>
+      <c r="C42" s="44">
+        <v>0</v>
+      </c>
+      <c r="D42" s="44">
+        <v>0</v>
+      </c>
+      <c r="E42" s="44">
+        <v>0</v>
+      </c>
+      <c r="F42" s="44">
+        <v>0</v>
+      </c>
+      <c r="G42" s="48">
+        <f>B42+C42+D42+E42+F42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="B43" s="44">
+        <v>0</v>
+      </c>
+      <c r="C43" s="44">
+        <v>0</v>
+      </c>
+      <c r="D43" s="44">
+        <v>0</v>
+      </c>
+      <c r="E43" s="44">
+        <v>0</v>
+      </c>
+      <c r="F43" s="44">
+        <v>0</v>
+      </c>
+      <c r="G43" s="48">
+        <f>B43+C43+D43+E43+F43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" s="44">
+        <v>0</v>
+      </c>
+      <c r="C44" s="44">
+        <v>0</v>
+      </c>
+      <c r="D44" s="44">
+        <v>0</v>
+      </c>
+      <c r="E44" s="44">
+        <v>0</v>
+      </c>
+      <c r="F44" s="44">
+        <v>0</v>
+      </c>
+      <c r="G44" s="48">
+        <f>B44+C44+D44+E44+F44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" s="44">
+        <v>0</v>
+      </c>
+      <c r="C45" s="44">
+        <v>0</v>
+      </c>
+      <c r="D45" s="44">
+        <v>0</v>
+      </c>
+      <c r="E45" s="44">
+        <v>0</v>
+      </c>
+      <c r="F45" s="44">
+        <v>0</v>
+      </c>
+      <c r="G45" s="48">
+        <f>B45+C45+D45+E45+F45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="B46" s="44">
+        <v>0</v>
+      </c>
+      <c r="C46" s="44">
+        <v>0</v>
+      </c>
+      <c r="D46" s="44">
+        <v>0</v>
+      </c>
+      <c r="E46" s="44">
+        <v>0</v>
+      </c>
+      <c r="F46" s="44">
+        <v>0</v>
+      </c>
+      <c r="G46" s="48">
+        <f>B46+C46+D46+E46+F46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="B47" s="44">
+        <v>0</v>
+      </c>
+      <c r="C47" s="44">
+        <v>0</v>
+      </c>
+      <c r="D47" s="44">
+        <v>0</v>
+      </c>
+      <c r="E47" s="44">
+        <v>0</v>
+      </c>
+      <c r="F47" s="44">
+        <v>0</v>
+      </c>
+      <c r="G47" s="48">
+        <f>B47+C47+D47+E47+F47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" s="44">
+        <v>0</v>
+      </c>
+      <c r="C48" s="44">
+        <v>0</v>
+      </c>
+      <c r="D48" s="44">
+        <v>0</v>
+      </c>
+      <c r="E48" s="44">
+        <v>0</v>
+      </c>
+      <c r="F48" s="44">
+        <v>0</v>
+      </c>
+      <c r="G48" s="48">
+        <f>B48+C48+D48+E48+F48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="B49" s="44">
+        <v>0</v>
+      </c>
+      <c r="C49" s="44">
+        <v>0</v>
+      </c>
+      <c r="D49" s="44">
+        <v>0</v>
+      </c>
+      <c r="E49" s="44">
+        <v>0</v>
+      </c>
+      <c r="F49" s="44">
+        <v>0</v>
+      </c>
+      <c r="G49" s="48">
+        <f>B49+C49+D49+E49+F49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" s="44">
+        <v>0</v>
+      </c>
+      <c r="C50" s="44">
+        <v>0</v>
+      </c>
+      <c r="D50" s="44">
+        <v>0</v>
+      </c>
+      <c r="E50" s="44">
+        <v>0</v>
+      </c>
+      <c r="F50" s="44">
+        <v>0</v>
+      </c>
+      <c r="G50" s="48">
+        <f>B50+C50+D50+E50+F50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" s="44">
+        <v>0</v>
+      </c>
+      <c r="C51" s="44">
+        <v>0</v>
+      </c>
+      <c r="D51" s="44">
+        <v>0</v>
+      </c>
+      <c r="E51" s="44">
+        <v>0</v>
+      </c>
+      <c r="F51" s="44">
+        <v>0</v>
+      </c>
+      <c r="G51" s="48">
+        <f>B51+C51+D51+E51+F51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52" s="44">
+        <v>0</v>
+      </c>
+      <c r="C52" s="44">
+        <v>0</v>
+      </c>
+      <c r="D52" s="44">
+        <v>0</v>
+      </c>
+      <c r="E52" s="44">
+        <v>0</v>
+      </c>
+      <c r="F52" s="44">
+        <v>0</v>
+      </c>
+      <c r="G52" s="48">
+        <f>B52+C52+D52+E52+F52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" s="44">
+        <v>0</v>
+      </c>
+      <c r="C53" s="44">
+        <v>0</v>
+      </c>
+      <c r="D53" s="44">
+        <v>0</v>
+      </c>
+      <c r="E53" s="44">
+        <v>0</v>
+      </c>
+      <c r="F53" s="44">
+        <v>0</v>
+      </c>
+      <c r="G53" s="48">
+        <f>B53+C53+D53+E53+F53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" s="44">
+        <v>0</v>
+      </c>
+      <c r="C54" s="44">
+        <v>0</v>
+      </c>
+      <c r="D54" s="44">
+        <v>0</v>
+      </c>
+      <c r="E54" s="44">
+        <v>0</v>
+      </c>
+      <c r="F54" s="44">
+        <v>0</v>
+      </c>
+      <c r="G54" s="48">
+        <f>B54+C54+D54+E54+F54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="B55" s="44">
+        <v>0</v>
+      </c>
+      <c r="C55" s="44">
+        <v>0</v>
+      </c>
+      <c r="D55" s="44">
+        <v>0</v>
+      </c>
+      <c r="E55" s="44">
+        <v>0</v>
+      </c>
+      <c r="F55" s="44">
+        <v>0</v>
+      </c>
+      <c r="G55" s="48">
+        <f>B55+C55+D55+E55+F55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="B56" s="44">
+        <v>0</v>
+      </c>
+      <c r="C56" s="44">
+        <v>0</v>
+      </c>
+      <c r="D56" s="44">
+        <v>0</v>
+      </c>
+      <c r="E56" s="44">
+        <v>0</v>
+      </c>
+      <c r="F56" s="44">
+        <v>0</v>
+      </c>
+      <c r="G56" s="48">
+        <f>B56+C56+D56+E56+F56</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>